--- a/Mutual Information Score.xlsx
+++ b/Mutual Information Score.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>feature</t>
   </si>
@@ -25,12 +25,12 @@
     <t>recoveries</t>
   </si>
   <si>
+    <t>total_rec_prncp</t>
+  </si>
+  <si>
     <t>collection_recovery_fee</t>
   </si>
   <si>
-    <t>total_rec_prncp</t>
-  </si>
-  <si>
     <t>last_pymnt_month</t>
   </si>
   <si>
@@ -82,12 +82,12 @@
     <t>installment</t>
   </si>
   <si>
+    <t>last_credit_pull_year</t>
+  </si>
+  <si>
     <t>last_credit_pull_month</t>
   </si>
   <si>
-    <t>last_credit_pull_year</t>
-  </si>
-  <si>
     <t>total_rec_late_fee</t>
   </si>
   <si>
@@ -97,58 +97,70 @@
     <t>inq_last_6mths</t>
   </si>
   <si>
+    <t>loan_amnt</t>
+  </si>
+  <si>
     <t>earliest_cr_line_month</t>
   </si>
   <si>
     <t>issue_d_month</t>
   </si>
   <si>
+    <t>funded_amnt_inv</t>
+  </si>
+  <si>
+    <t>annual_inc</t>
+  </si>
+  <si>
     <t>funded_amnt</t>
   </si>
   <si>
-    <t>loan_amnt</t>
-  </si>
-  <si>
     <t>addr_state</t>
   </si>
   <si>
-    <t>funded_amnt_inv</t>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>earliest_cr_line_year</t>
   </si>
   <si>
     <t>tot_cur_bal</t>
   </si>
   <si>
-    <t>purpose</t>
-  </si>
-  <si>
-    <t>annual_inc</t>
+    <t>total_rev_hi_lim</t>
+  </si>
+  <si>
+    <t>open_acc</t>
   </si>
   <si>
     <t>pub_rec</t>
   </si>
   <si>
-    <t>total_rev_hi_lim</t>
-  </si>
-  <si>
-    <t>open_acc</t>
+    <t>emp_title</t>
+  </si>
+  <si>
+    <t>delinq_2yrs</t>
   </si>
   <si>
     <t>revol_util</t>
   </si>
   <si>
+    <t>total_acc</t>
+  </si>
+  <si>
+    <t>revol_bal</t>
+  </si>
+  <si>
     <t>dti</t>
   </si>
   <si>
-    <t>emp_title</t>
-  </si>
-  <si>
-    <t>delinq_2yrs</t>
-  </si>
-  <si>
-    <t>revol_bal</t>
-  </si>
-  <si>
-    <t>total_acc</t>
+    <t>tot_coll_amt</t>
+  </si>
+  <si>
+    <t>acc_now_delinq</t>
+  </si>
+  <si>
+    <t>collections_12_mths_ex_med</t>
   </si>
 </sst>
 </file>
@@ -506,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,29 +540,29 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.1274225354677694</v>
+        <v>0.1274334892946387</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.1210902231501243</v>
+        <v>0.120971890036321</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.1209434202205502</v>
+        <v>0.1201458786135432</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -561,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.06009213243637568</v>
+        <v>0.06071522891248615</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -572,7 +584,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.0568546014816671</v>
+        <v>0.05764051512722501</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -583,7 +595,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.0558106625912107</v>
+        <v>0.05637474376314588</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -594,7 +606,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.04706874367550196</v>
+        <v>0.04698453270877079</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -605,7 +617,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.04613727431732295</v>
+        <v>0.0461098078212141</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -616,7 +628,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.03498648572656982</v>
+        <v>0.03537259365331202</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -627,7 +639,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.03444724440449298</v>
+        <v>0.03445047924953637</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -638,7 +650,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.03086197513295064</v>
+        <v>0.03098656496470786</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -649,7 +661,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.0254820164191456</v>
+        <v>0.02675031391005778</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -660,7 +672,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.02521272636838456</v>
+        <v>0.02481758589870009</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -671,7 +683,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.02188147135115992</v>
+        <v>0.02323999954048039</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -682,7 +694,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.0197855061931409</v>
+        <v>0.02115493064085983</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -693,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.01680950992169339</v>
+        <v>0.01791129073981268</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -704,7 +716,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.01650436940729705</v>
+        <v>0.01731285077793232</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -715,7 +727,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.01554822640731324</v>
+        <v>0.01580696128501624</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -726,7 +738,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.0128003231999072</v>
+        <v>0.01294292721437373</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -737,29 +749,29 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.01182234923655079</v>
+        <v>0.01177899299650309</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.01097105549935273</v>
+        <v>0.0106209312030161</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.01090408080285132</v>
+        <v>0.009902503312132271</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -770,7 +782,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.009935257491714866</v>
+        <v>0.00941141875763174</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -781,7 +793,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.008549402716472754</v>
+        <v>0.008701564563756259</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -792,84 +804,84 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.006995807465355552</v>
+        <v>0.006766895056575573</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.005613707468731244</v>
+        <v>0.004626534518780367</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.005559484532277947</v>
+        <v>0.004305715781092179</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.004631438440075852</v>
+        <v>0.004271800938322245</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.004547703160989514</v>
+        <v>0.003923253615128575</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.00432920522429292</v>
+        <v>0.003644059747986095</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.004026532097291646</v>
+        <v>0.003537482408641379</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.003180960544309164</v>
+        <v>0.003065326427222237</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -880,29 +892,29 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.00311471407696251</v>
+        <v>0.002924020023222784</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.003026225903210333</v>
+        <v>0.00283390066057132</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.002641162383465678</v>
+        <v>0.002713509789725288</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -913,7 +925,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.002194717062889096</v>
+        <v>0.002639189640436079</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -924,73 +936,117 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0.001949705900477383</v>
+        <v>0.002580543779529876</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
       </c>
       <c r="C39">
-        <v>0.001834910701541403</v>
+        <v>0.002302603916880974</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0.001554673579024834</v>
+        <v>0.002017381939401153</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
       </c>
       <c r="C41">
-        <v>0.00132741192517738</v>
+        <v>0.001810206476553944</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
       </c>
       <c r="C42">
-        <v>0.001290427499929914</v>
+        <v>0.001518990737472636</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
       </c>
       <c r="C43">
-        <v>0.0009855903755935369</v>
+        <v>0.001298366696703024</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
       </c>
       <c r="C44">
-        <v>0.0008970489172805962</v>
+        <v>0.001128645626712332</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>0.0002064938024715079</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>36</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>35</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>34</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
